--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1797.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1797.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160901132569074</v>
+        <v>0.7253948450088501</v>
       </c>
       <c r="B1">
-        <v>2.285029097249969</v>
+        <v>1.537975430488586</v>
       </c>
       <c r="C1">
-        <v>4.697311275340867</v>
+        <v>4.353761672973633</v>
       </c>
       <c r="D1">
-        <v>2.733956763552582</v>
+        <v>2.50617241859436</v>
       </c>
       <c r="E1">
-        <v>1.139937951502543</v>
+        <v>0.9278985261917114</v>
       </c>
     </row>
   </sheetData>
